--- a/讲座收集表【样例】.xlsx
+++ b/讲座收集表【样例】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YihaoCenter\个人项目\#Done\scrapy_for_Peter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\CrawlWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD329CCB-7102-41CE-9548-0E7326550BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B51F49-ADC2-4928-9FE0-040A6D09B953}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="4638" windowWidth="21600" windowHeight="10008" xr2:uid="{2924FC44-92F8-404F-AA1D-1BFF24BA4906}"/>
+    <workbookView xWindow="17280" yWindow="4638" windowWidth="21600" windowHeight="10008" activeTab="1" xr2:uid="{2924FC44-92F8-404F-AA1D-1BFF24BA4906}"/>
   </bookViews>
   <sheets>
     <sheet name="讲座结果" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +218,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +541,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -684,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF079022-6B7A-44FE-8283-06BC7CBE0855}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -694,7 +703,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -704,37 +713,37 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
